--- a/DE PARA SETOR.xlsx
+++ b/DE PARA SETOR.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\projetos_alelimarj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A7FB17-2766-4E30-BD17-87EE82973347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB4AC0-6621-4874-99FB-D1F2C42C9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F185F4-8632-4281-BBEC-0EAFCF2BD7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="DE PARA SETOR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AGRAF1" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AGRAF2" hidden="1">#REF!</definedName>
@@ -2973,7 +2970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="162">
   <si>
     <t>DE SETOR</t>
   </si>
@@ -3534,38 +3531,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Dados Resumo"/>
-      <sheetName val="Base Detalhada"/>
-      <sheetName val="Convertidos"/>
-      <sheetName val="Leitos Ativos"/>
-      <sheetName val="DePara"/>
-      <sheetName val="DADOS"/>
-      <sheetName val="TABELA"/>
-      <sheetName val="FÓRMULAS"/>
-      <sheetName val="De Para Setor JV"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3891,9 +3856,9 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D28" sqref="D28"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3919,11 +3884,8 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C65" si="0">MID(A2,8,1000)</f>
+        <f>MID(A2,8,1000)</f>
         <v>CENTRO CIRURGICO</v>
       </c>
     </row>
@@ -3935,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:C65" si="0">MID(A3,8,1000)</f>
         <v>UTI GERAL</v>
       </c>
     </row>
@@ -5459,7 +5421,7 @@
         <v>13</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" ref="C130:C153" si="2">MID(A130,8,1000)</f>
+        <f t="shared" ref="C130:C151" si="2">MID(A130,8,1000)</f>
         <v>UI TMO ADULTO - BL C - 1 ANDAR</v>
       </c>
     </row>

--- a/DE PARA SETOR.xlsx
+++ b/DE PARA SETOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\projetos_alelimarj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB4AC0-6621-4874-99FB-D1F2C42C9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CB28A-3B8B-40E2-A723-DDBA90A85D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F185F4-8632-4281-BBEC-0EAFCF2BD7F6}"/>
   </bookViews>
@@ -2970,7 +2970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="162">
   <si>
     <t>DE SETOR</t>
   </si>
@@ -3858,7 +3858,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D28" sqref="D28"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3884,6 +3884,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="2" t="str">
         <f>MID(A2,8,1000)</f>
         <v>CENTRO CIRURGICO</v>
@@ -3897,7 +3900,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C2:C65" si="0">MID(A3,8,1000)</f>
+        <f t="shared" ref="C3:C65" si="0">MID(A3,8,1000)</f>
         <v>UTI GERAL</v>
       </c>
     </row>

--- a/DE PARA SETOR.xlsx
+++ b/DE PARA SETOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\projetos_alelimarj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CB28A-3B8B-40E2-A723-DDBA90A85D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92378735-A60E-463F-A9FC-6AFCEA321E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F185F4-8632-4281-BBEC-0EAFCF2BD7F6}"/>
   </bookViews>
@@ -3858,7 +3858,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D28" sqref="D28"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/DE PARA SETOR.xlsx
+++ b/DE PARA SETOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\projetos_alelimarj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92378735-A60E-463F-A9FC-6AFCEA321E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C645A27E-AADF-4128-A2D0-CCB9A583C911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F185F4-8632-4281-BBEC-0EAFCF2BD7F6}"/>
   </bookViews>
@@ -2970,7 +2970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="166">
   <si>
     <t>DE SETOR</t>
   </si>
@@ -3456,6 +3456,18 @@
   </si>
   <si>
     <t>0328 - EC SAMA - BL B - TERREO</t>
+  </si>
+  <si>
+    <t>0272 - HS CARRO PARADA UTI GERAL 4</t>
+  </si>
+  <si>
+    <t>0307 - HV CARRO PARADA SEMI PED 2</t>
+  </si>
+  <si>
+    <t>0318 - HS FARMACIA SAT SEMI ADULTA</t>
+  </si>
+  <si>
+    <t>0020 - HV PYXIS IMAGEM</t>
   </si>
 </sst>
 </file>
@@ -3512,10 +3524,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3853,12 +3866,12 @@
   <sheetPr codeName="Planilha4">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D28" sqref="D28"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5704,6 +5717,38 @@
         <v>EC SAMA - BL B - TERREO</v>
       </c>
     </row>
+    <row r="154" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C151" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DE PARA SETOR.xlsx
+++ b/DE PARA SETOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\projetos_alelimarj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0036D76-39F5-4F56-B99D-B17D5EE887C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C258BC-7CEB-4FDD-9618-463576D9D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F185F4-8632-4281-BBEC-0EAFCF2BD7F6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="_123Graph_F" hidden="1">#REF!</definedName>
     <definedName name="_124Graph_ECHART3" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DE PARA SETOR'!$A$1:$C$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DE PARA SETOR'!$A$1:$C$176</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
@@ -2970,7 +2970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="186">
   <si>
     <t>DE SETOR</t>
   </si>
@@ -3525,6 +3525,9 @@
   </si>
   <si>
     <t>1295 - KIT CATASTROFE</t>
+  </si>
+  <si>
+    <t>HEMODIÁLISE</t>
   </si>
 </sst>
 </file>
@@ -3933,9 +3936,9 @@
   <dimension ref="A1:C3705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D28" sqref="D28"/>
-      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4274,7 +4277,7 @@
         <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4382,7 +4385,7 @@
         <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4454,7 +4457,7 @@
         <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -16645,7 +16648,7 @@
       <c r="A3705"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C151" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:C176" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;K000000 Informações Internas</oddFooter>
